--- a/curation/draft/package15/R15_BC_SDTM_LB_Edits.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_LB_Edits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A3A9F1-4E80-4881-86AA-F8B3405651AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F427601-6A77-47FD-A3F3-321B9375CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{C55D91E0-AE97-449E-84B0-FCF6A678D037}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C55D91E0-AE97-449E-84B0-FCF6A678D037}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_LB" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2002" uniqueCount="202">
   <si>
     <t>package_date</t>
   </si>
@@ -550,9 +550,6 @@
     <t>Quantitative;Ordinal</t>
   </si>
   <si>
-    <t>Positive;Negative; Reactive, Indeterminate, Nonreactive;1+;2+;3+</t>
-  </si>
-  <si>
     <t>Prothrombin Activity Measurement</t>
   </si>
   <si>
@@ -638,6 +635,18 @@
   </si>
   <si>
     <t>is the date of occurrence for</t>
+  </si>
+  <si>
+    <t>C82535</t>
+  </si>
+  <si>
+    <t>Test Method</t>
+  </si>
+  <si>
+    <t>Added DEC for Test Method</t>
+  </si>
+  <si>
+    <t>Positive; Negative; Reactive; Indeterminate; Nonreactive;1+;2+;3+</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1136,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1295,7 @@
         <v>165</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1341,24 +1350,24 @@
         <v>143</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1374,28 +1383,28 @@
         <v>143</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1419,28 +1428,28 @@
         <v>143</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1458,7 +1467,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -1466,28 +1475,28 @@
         <v>143</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1502,7 +1511,7 @@
         <v>164</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="6"/>
     </row>
@@ -1511,28 +1520,28 @@
         <v>143</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1544,10 +1553,10 @@
         <v>78</v>
       </c>
       <c r="O9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P9" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
@@ -1556,46 +1565,46 @@
         <v>143</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>165</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1603,28 +1612,28 @@
         <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1636,14 +1645,14 @@
         <v>78</v>
       </c>
       <c r="O11" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P11" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1651,40 +1660,40 @@
         <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>165</v>
@@ -1696,28 +1705,28 @@
         <v>143</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1735,7 +1744,7 @@
         <v>165</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1743,28 +1752,28 @@
         <v>143</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1788,28 +1797,28 @@
         <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1824,28 +1833,57 @@
         <v>164</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
+    <row r="16" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="Q16" s="6"/>
+      <c r="R16" s="9" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
@@ -1910,6 +1948,9 @@
     <hyperlink ref="D15" r:id="rId38" xr:uid="{5D10B70C-9D03-4CD5-B7BB-005CF02E60F1}"/>
     <hyperlink ref="E15" r:id="rId39" xr:uid="{B6256E11-DC90-4FD3-927C-BB0D86C0149C}"/>
     <hyperlink ref="N15" r:id="rId40" xr:uid="{12ECC21D-2ABD-4E3C-A2BC-2664E25A012B}"/>
+    <hyperlink ref="D16" r:id="rId41" xr:uid="{F571BECE-AF30-4F64-94CF-3EAFBB108728}"/>
+    <hyperlink ref="E16" r:id="rId42" xr:uid="{0F23C690-E61D-42A2-8F63-FCA8B84E8FCF}"/>
+    <hyperlink ref="N16" r:id="rId43" xr:uid="{2C5C11DE-26B5-40AF-A784-F534E5EEF629}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2679,7 +2720,7 @@
         <v>85</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>88</v>
@@ -3350,7 +3391,7 @@
         <v>85</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>88</v>
@@ -4009,7 +4050,7 @@
         <v>85</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>88</v>
@@ -4680,7 +4721,7 @@
         <v>85</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>88</v>
@@ -5351,7 +5392,7 @@
         <v>85</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>88</v>
@@ -6022,7 +6063,7 @@
         <v>85</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>88</v>
@@ -6689,7 +6730,7 @@
         <v>85</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>88</v>
@@ -7360,7 +7401,7 @@
         <v>85</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U73" s="4" t="s">
         <v>88</v>
@@ -8031,7 +8072,7 @@
         <v>85</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U82" s="4" t="s">
         <v>88</v>
@@ -8622,7 +8663,7 @@
         <v>85</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U90" s="4" t="s">
         <v>88</v>

--- a/curation/draft/package15/R15_BC_SDTM_LB_Edits.xlsx
+++ b/curation/draft/package15/R15_BC_SDTM_LB_Edits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F427601-6A77-47FD-A3F3-321B9375CA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD2F603-0291-43A2-B0AE-D8561550569B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C55D91E0-AE97-449E-84B0-FCF6A678D037}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SDTM_LB" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_LB!$A$1:$R$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BC_LB!$A$1:$R$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SDTM_LB!$A$1:$AG$90</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -556,9 +556,6 @@
     <t>C98774</t>
   </si>
   <si>
-    <t>Laboratory Tests;HematologyTests;Protein or Enzyme Type Measurements;Prothrombin Measurements;Coagulation Study</t>
-  </si>
-  <si>
     <t>Factor II Activity;Prothrombin Activity</t>
   </si>
   <si>
@@ -571,9 +568,6 @@
     <t>C62656</t>
   </si>
   <si>
-    <t>Laboratory Tests;Hematology Tests;Coagulation Study;Prothrombin Activity Measurements;Drug-Induced Liver Injury;DILI</t>
-  </si>
-  <si>
     <t>PT</t>
   </si>
   <si>
@@ -647,6 +641,12 @@
   </si>
   <si>
     <t>Positive; Negative; Reactive; Indeterminate; Nonreactive;1+;2+;3+</t>
+  </si>
+  <si>
+    <t>Laboratory Tests;Chemistry Tests;Coagulation Study;Prothrombin Activity Measurements;Drug-Induced Liver Injury;DILI</t>
+  </si>
+  <si>
+    <t>Laboratory Tests;Chemistry Tests;Protein or Enzyme Type Measurements;Prothrombin Measurements;Coagulation Study</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C796D76-2B9C-488B-BD8A-7FE056A7EE2E}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1295,7 @@
         <v>165</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -1360,14 +1360,14 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1383,28 +1383,28 @@
         <v>143</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="I6" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1428,28 +1428,28 @@
         <v>143</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1467,7 +1467,7 @@
         <v>165</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.25">
@@ -1475,28 +1475,28 @@
         <v>143</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="I8" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1511,7 +1511,7 @@
         <v>164</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="6"/>
     </row>
@@ -1520,28 +1520,28 @@
         <v>143</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1553,10 +1553,10 @@
         <v>78</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q9" s="6"/>
     </row>
@@ -1565,46 +1565,46 @@
         <v>143</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>175</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="I10" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>165</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1612,28 +1612,28 @@
         <v>143</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1645,14 +1645,14 @@
         <v>78</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1660,40 +1660,40 @@
         <v>143</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>165</v>
@@ -1705,28 +1705,28 @@
         <v>143</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1744,7 +1744,7 @@
         <v>165</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1752,28 +1752,28 @@
         <v>143</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -1797,28 +1797,28 @@
         <v>143</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="F15" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -1833,7 +1833,7 @@
         <v>164</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q15" s="6"/>
     </row>
@@ -1842,47 +1842,47 @@
         <v>143</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="F16" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>168</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>165</v>
       </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
       <c r="Q17" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R15" xr:uid="{6C796D76-2B9C-488B-BD8A-7FE056A7EE2E}"/>
+  <autoFilter ref="A1:R16" xr:uid="{6C796D76-2B9C-488B-BD8A-7FE056A7EE2E}"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{5F8DBBC9-9823-4E41-B727-5306E2E13A3C}"/>
@@ -2720,7 +2720,7 @@
         <v>85</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>88</v>
@@ -3391,7 +3391,7 @@
         <v>85</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>88</v>
@@ -4050,7 +4050,7 @@
         <v>85</v>
       </c>
       <c r="T28" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>88</v>
@@ -4721,7 +4721,7 @@
         <v>85</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U37" s="4" t="s">
         <v>88</v>
@@ -5392,7 +5392,7 @@
         <v>85</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>88</v>
@@ -6063,7 +6063,7 @@
         <v>85</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U55" s="4" t="s">
         <v>88</v>
@@ -6730,7 +6730,7 @@
         <v>85</v>
       </c>
       <c r="T64" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>88</v>
@@ -7401,7 +7401,7 @@
         <v>85</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U73" s="4" t="s">
         <v>88</v>
@@ -8072,7 +8072,7 @@
         <v>85</v>
       </c>
       <c r="T82" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U82" s="4" t="s">
         <v>88</v>
@@ -8663,7 +8663,7 @@
         <v>85</v>
       </c>
       <c r="T90" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="U90" s="4" t="s">
         <v>88</v>
